--- a/data/trans_dic/P2C_R1-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R1-Provincia-trans_dic.xlsx
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,2%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2,12%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,6%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>36,18%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,27%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,12%</t>
         </is>
       </c>
     </row>
@@ -724,22 +724,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,29</t>
+          <t>0,0; 4,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,55; 4,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>0,0; 3,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>19,24; 56,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,37 +749,37 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,28; 9,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,99</t>
+          <t>0,46; 3,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>22,03; 47,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0,0; 2,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,93; 6,47</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>0,28; 2,51</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,06</t>
+          <t>25,06; 46,05</t>
         </is>
       </c>
     </row>
@@ -801,57 +801,57 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,41%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,61%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,59%</t>
         </is>
       </c>
     </row>
@@ -869,57 +869,57 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>0,0; 1,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>0,0; 2,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>13,91; 36,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>0,51; 3,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0,0; 2,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>0,0; 2,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>10,62; 21,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0,18; 1,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,14; 1,22</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,19; 2,21</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>13,64; 25,1</t>
         </is>
       </c>
     </row>
@@ -946,52 +946,52 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,5%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,47%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,22%</t>
         </is>
       </c>
     </row>
@@ -1014,52 +1014,52 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,99</t>
+          <t>0,0; 2,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>19,19; 44,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,85</t>
+          <t>0,0; 3,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>0,0; 4,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>0,0; 2,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>24,18; 43,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0,0; 1,61</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>0,0; 1,92</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>0,23; 1,99</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>25,47; 41,36</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,52%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>25,27%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,76%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,62%</t>
         </is>
       </c>
     </row>
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>0,0; 3,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>0; 0,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>14,35; 41,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,37 +1169,37 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>0,64; 3,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>0,34; 3,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,45</t>
+          <t>12,99; 26,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,0; 1,3</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,34; 2,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0,2; 1,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>16,43; 30,42</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>3,12%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,14%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,38%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>16,0%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1,62%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,82%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,55%</t>
         </is>
       </c>
     </row>
@@ -1284,27 +1284,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>0,78; 9,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,44</t>
+          <t>0,0; 7,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>1,22; 8,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>7,2; 31,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,34</t>
+          <t>0,0; 5,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1319,27 +1319,27 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>15,01; 33,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>0,83; 5,19</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0,0; 3,89</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>0,36; 3,97</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>14,24; 28,23</t>
         </is>
       </c>
     </row>
@@ -1361,57 +1361,57 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>1,09%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1,77%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>22,7%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1,28%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,31%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,15%</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>0,0; 3,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,15</t>
+          <t>0,5; 4,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>14,63; 32,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>0,0; 4,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1454,32 +1454,32 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,18</t>
+          <t>0,0; 4,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,35</t>
+          <t>19,49; 34,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,0; 2,43</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>0,0; 1,61</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>0,29; 2,99</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>19,32; 30,41</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,28%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>0,0; 1,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>0,49; 3,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>0,0; 1,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>4,07; 21,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0,0; 1,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0,48; 2,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0,22; 1,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,74</t>
+          <t>0,59; 22,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,0; 0,7</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,72; 2,47</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0,26; 1,47</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,18</t>
+          <t>1,11; 17,18</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,52%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,22; 2,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,0; 1,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>0,24; 2,07</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,04</t>
+          <t>1,82; 6,91</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,22; 2,26</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,0; 1,27</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,66; 2,85</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>5,89; 11,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,36; 1,71</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0,1; 0,97</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,64; 2,13</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>4,82; 8,53</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,55%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0,32; 1,09</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0,44; 1,3</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0,55; 1,48</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>13,67; 20,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>0,46; 1,3</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>0,78; 1,71</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>0,63; 1,45</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>6,49; 18,02</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>0,44; 0,99</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>0,7; 1,35</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>0,69; 1,33</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>7,97; 17,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2C_R1-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R1-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,22 +725,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,31</t>
+          <t>0,0; 4,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 4,9</t>
+          <t>0,54; 5,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,52</t>
+          <t>0,0; 3,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,24; 56,53</t>
+          <t>19,49; 55,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,44 +750,44 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 9,57</t>
+          <t>1,92; 9,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 3,47</t>
+          <t>0,47; 4,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,03; 47,0</t>
+          <t>22,33; 46,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,0</t>
+          <t>0,0; 2,21</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 6,47</t>
+          <t>1,93; 6,29</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,51</t>
+          <t>0,28; 2,66</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,06; 46,05</t>
+          <t>24,83; 45,91</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -869,64 +870,64 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,51</t>
+          <t>0,0; 1,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,99</t>
+          <t>0,0; 3,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,91; 36,83</t>
+          <t>13,9; 35,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,94</t>
+          <t>0,34; 3,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,22</t>
+          <t>0,0; 2,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,57</t>
+          <t>0,0; 2,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,62; 21,43</t>
+          <t>10,76; 21,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,79</t>
+          <t>0,27; 1,86</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,22</t>
+          <t>0,14; 1,28</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,21</t>
+          <t>0,19; 1,84</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,64; 25,1</t>
+          <t>13,71; 24,37</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1014,52 +1015,52 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,96</t>
+          <t>0,0; 3,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,19; 44,29</t>
+          <t>20,46; 44,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,32</t>
+          <t>0,0; 3,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,23</t>
+          <t>0,0; 3,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,92</t>
+          <t>0,0; 2,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,18; 43,28</t>
+          <t>23,59; 42,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,61</t>
+          <t>0,0; 1,79</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,92</t>
+          <t>0,0; 1,98</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,99</t>
+          <t>0,0; 1,98</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>25,47; 41,36</t>
+          <t>25,26; 40,29</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1145,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,09</t>
+          <t>0,0; 2,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1159,7 +1160,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,35; 41,81</t>
+          <t>14,83; 42,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,37 +1170,37 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,81</t>
+          <t>0,62; 3,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,26</t>
+          <t>0,35; 3,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,99; 26,21</t>
+          <t>13,34; 25,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,3</t>
+          <t>0,0; 1,22</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,0</t>
+          <t>0,35; 2,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,71</t>
+          <t>0,2; 1,84</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,43; 30,42</t>
+          <t>15,56; 29,26</t>
         </is>
       </c>
     </row>
@@ -1284,27 +1285,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,78; 9,32</t>
+          <t>0,79; 9,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,43</t>
+          <t>0,0; 7,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,22; 8,14</t>
+          <t>0,75; 8,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,2; 31,3</t>
+          <t>6,98; 29,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,68</t>
+          <t>0,0; 5,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1319,34 +1320,34 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,01; 33,26</t>
+          <t>15,22; 33,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 5,19</t>
+          <t>0,72; 5,15</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,89</t>
+          <t>0,0; 3,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,97</t>
+          <t>0,36; 4,0</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,24; 28,23</t>
+          <t>13,91; 28,85</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1429,22 +1430,22 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,81</t>
+          <t>0,0; 3,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,97</t>
+          <t>0,5; 5,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,63; 32,93</t>
+          <t>14,53; 31,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,13</t>
+          <t>0,0; 4,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1454,39 +1455,39 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,03</t>
+          <t>0,0; 4,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>19,49; 34,17</t>
+          <t>19,05; 33,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,43</t>
+          <t>0,0; 2,33</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,61</t>
+          <t>0,0; 1,55</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,99</t>
+          <t>0,38; 3,2</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>19,32; 30,41</t>
+          <t>18,77; 30,2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,17</t>
+          <t>0,0; 1,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,49; 3,45</t>
+          <t>0,28; 3,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,95</t>
+          <t>0,0; 2,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,07; 21,22</t>
+          <t>4,44; 21,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,13</t>
+          <t>0,0; 1,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,94</t>
+          <t>0,48; 2,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,88</t>
+          <t>0,22; 1,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,59; 22,07</t>
+          <t>0,62; 21,71</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,7</t>
+          <t>0,0; 0,71</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,47</t>
+          <t>0,62; 2,43</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,47</t>
+          <t>0,26; 1,58</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,11; 17,18</t>
+          <t>0,88; 17,26</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,54</t>
+          <t>0,22; 2,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,37</t>
+          <t>0,0; 1,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,07</t>
+          <t>0,21; 2,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,82; 6,91</t>
+          <t>1,59; 6,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,26</t>
+          <t>0,31; 2,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,27</t>
+          <t>0,0; 1,32</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,85</t>
+          <t>0,65; 2,88</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,89; 11,34</t>
+          <t>6,03; 11,08</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,71</t>
+          <t>0,39; 1,89</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,97</t>
+          <t>0,1; 0,89</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,13</t>
+          <t>0,61; 2,11</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>4,82; 8,53</t>
+          <t>4,77; 8,45</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,09</t>
+          <t>0,25; 1,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,3</t>
+          <t>0,44; 1,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,48</t>
+          <t>0,56; 1,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>13,67; 20,39</t>
+          <t>13,68; 20,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,3</t>
+          <t>0,46; 1,29</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,71</t>
+          <t>0,75; 1,66</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1,45</t>
+          <t>0,62; 1,54</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,49; 18,02</t>
+          <t>6,46; 18,09</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,44; 0,99</t>
+          <t>0,46; 1,06</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,35</t>
+          <t>0,69; 1,32</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0,69; 1,33</t>
+          <t>0,7; 1,29</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>7,97; 17,65</t>
+          <t>8,67; 17,71</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con al menos un miembro que requiere cuidados y estos son remunerados</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1769</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3775</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>9019</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10522</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2907</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>10591</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1769</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>14297</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3943</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>19610</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6300</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>966; 10541</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5347</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4858; 13755</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2055</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4006; 19270</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>937; 8133</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6902; 14513</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6920</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7454; 24299</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1028; 9941</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>13867; 25637</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>947</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>16311</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4875</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2144</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2332</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>17560</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4875</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3091</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4432</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>33871</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2025</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4856</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 8357</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>9684; 24926</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1188; 12261</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7558</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7680</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>12100; 24072</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1744; 11925</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>944; 8611</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1084; 10752</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>24982; 44397</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13240</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2135</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2521</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1874</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>20090</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>2135</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>2521</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2870</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>33330</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1951</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1978</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5575</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8881; 19140</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7152</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8891</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5786</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>14161; 25753</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7460</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8800</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7719</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>26132; 41673</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1043</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>15172</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>4949</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2863</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>14310</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1043</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>4949</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2863</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>29482</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5269</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2098</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1954</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>8905; 25254</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1838</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1821; 10865</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>882; 8259</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>10179; 19522</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5440</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1902; 11211</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>883; 8216</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>21208; 39892</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3369</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3105</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>4519</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3582</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2432</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>7393</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5801</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>3105</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>4519</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>10975</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>850; 9952</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 10864</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1000; 10804</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1562; 6527</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8548</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1997</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1886</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>4723; 10295</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1860; 13273</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 10999</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1009; 11179</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>7429; 15413</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1918</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2858</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>12934</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2280</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1259</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>17921</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2280</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1918</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4117</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>30855</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1923</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5880</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>803; 8190</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>8279; 18119</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7718</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1980</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6976</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>13485; 23521</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7955</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5902</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1251; 10639</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>23983; 38585</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2180</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>5011</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>994</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>6254</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>3096</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>11580</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1815</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>11336</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>16591</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4196</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1099; 12889</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 7519</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2147; 10310</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4979</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2187; 12456</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>966; 8377</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1636; 57714</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5608</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>5284; 20712</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>2063; 12417</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>2773; 54254</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>4053</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1874</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>3929</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>6065</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>5009</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>2229</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>8208</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>20838</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>9062</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>4103</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>12136</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>26902</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1015; 11256</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 6082</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>937; 10272</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>2594; 10237</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>1648; 12599</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>0; 7779</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>3805; 16813</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>15032; 27638</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>3870; 18963</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1045; 9448</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>6309; 22006</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>19680; 34873</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>11056</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>16701</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>17618</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>81334</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>17725</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>28619</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>22539</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>120283</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>28781</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>45320</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>40157</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>201617</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>4736; 20677</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>9457; 26765</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>10603; 27109</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>66947; 97983</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>10664; 29730</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>18997; 41757</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>14413; 35890</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>57911; 162248</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>19490; 44763</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>32174; 61541</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>29413; 54728</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>120183; 245408</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>